--- a/src/main/resources/excel/finished/焦化/CK67-化产报表设计1109.xlsx
+++ b/src/main/resources/excel/finished/焦化/CK67-化产报表设计1109.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="760"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="760" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="1.鼓风冷凝(日)" sheetId="1" r:id="rId1"/>
@@ -1832,124 +1832,124 @@
     <t>自抽装置压力kPa</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_PI30604r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0601AVr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0601BVr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA30603Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA30603Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFR30608r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI30605r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI30604r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI30603r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFR30607r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FR30610r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0602AVr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0602BVr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA30603Cr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA30602r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI30602r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIA30802r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFR30603r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0603AVr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0603BVr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TOTAL_FIQ30602_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA30601r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI30601r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIA30801r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFR30601r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI30803r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TR30822Aar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TR30822Bar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30802Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30801Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PaLiBr1_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30802Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30801Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PaLiBr2_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30802Cr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30801Cr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PaLiBr3_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30802Dr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30801Dr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PaLiBr4_1min_avg</t>
+    <t>CK67_L1R_CC_PI30604r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0601AVr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0601BVr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA30603Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA30603Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFR30608r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI30605r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI30604r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI30603r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFR30607r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FR30610r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0602AVr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0602BVr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA30603Cr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA30602r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI30602r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIA30802r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFR30603r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0603AVr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0603BVr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TOTAL_FIQ30602_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA30601r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI30601r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIA30801r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFR30601r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI30803r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TR30822Aar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TR30822Bar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30802Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30801Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PaLiBr1_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30802Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30801Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PaLiBr2_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30802Cr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30801Cr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PaLiBr3_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30802Dr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30801Dr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PaLiBr4_1hour_avg</t>
   </si>
   <si>
     <r>
@@ -2289,58 +2289,58 @@
     </r>
   </si>
   <si>
-    <t>CK67_L1R_CC_TI33303Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33303Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33302Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33302Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33302Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33302Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LRCA33301Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LRCA33301Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFRCQ33351r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33351r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TRSA33353r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33304r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33304r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIQ33302r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33301r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC31802ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FI33304r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC33106ar_1min_avg</t>
+    <t>CK67_L1R_CC_TI33303Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33303Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33302Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33302Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33302Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33302Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LRCA33301Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LRCA33301Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFRCQ33351r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33351r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TRSA33353r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33304r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33304r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIQ33302r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33301r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC31802ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FI33304r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC33106ar_1hour_avg</t>
   </si>
   <si>
     <t>化验项目</t>
@@ -2523,52 +2523,52 @@
     <t>电机电流A</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_PT_1402_R1_PI33203Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1402_R1_PI33203Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33203Ar_PI33204r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33203Br_PI33204r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33201Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33201Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33202r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33203Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33203Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P3201AIr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P3201BIr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA33203r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA33202r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA33201r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIQ33203r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33205r_1min_avg</t>
+    <t>CK67_L1R_CC_PT_1402_R1_PI33203Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1402_R1_PI33203Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33203Ar_PI33204r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33203Br_PI33204r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33201Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33201Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33202r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33203Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33203Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P3201AIr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P3201BIr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA33203r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA33202r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA33201r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIQ33203r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33205r_1hour_avg</t>
   </si>
   <si>
     <t>硫
@@ -2853,94 +2853,94 @@
     <t>过热蒸汽温度 ℃</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_BZFRCQ35251r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35252r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35251r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFRCQ35103r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35253r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35202ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFIQ35205r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35219ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FR35203ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35208r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35213r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35214r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35203r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35204r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC35201ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35205r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35210r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LI35201ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FR35211r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TV35201Ir_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5201AIr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5201bIr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5201AVFr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5201BVFr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35203r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35206r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35204r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35207r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35206r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35206br_1min_avg</t>
+    <t>CK67_L1R_CC_BZFRCQ35251r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35252r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35251r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFRCQ35103r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35253r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35202ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFIQ35205r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35219ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FR35203ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35208r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35213r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35214r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35203r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35204r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC35201ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35205r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35210r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LI35201ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FR35211r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TV35201Ir_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5201AIr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5201bIr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5201AVFr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5201BVFr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35203r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35206r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35204r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35207r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35206r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35206br_1hour_avg</t>
   </si>
   <si>
     <t>粗苯</t>
@@ -3110,91 +3110,91 @@
     <t>站后压缩空气流量m3/H</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_P5101AIr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5101BIr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35101r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA35104ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33204r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35101r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33204r_PI35101r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35102r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5102AIr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5102BIr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5102AVr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5102BVr_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFIQ35210r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35104r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35105ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35102r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35101r_PI35102r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35103r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA35102r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA35103r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI30821r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI30821r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PR30822Aar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PR30822Bar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FI30823Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FI30823Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI30811r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI30812r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIQ30812r_1min_avg</t>
+    <t>CK67_L1R_CC_P5101AIr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5101BIr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35101r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA35104ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33204r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35101r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33204r_PI35101r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35102r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5102AIr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5102BIr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5102AVr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5102BVr_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFIQ35210r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35104r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35105ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35102r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35101r_PI35102r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35103r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA35102r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA35103r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI30821r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI30821r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PR30822Aar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PR30822Bar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FI30823Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FI30823Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI30811r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI30812r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIQ30812r_1hour_avg</t>
   </si>
   <si>
     <r>
@@ -3668,100 +3668,100 @@
     <t>1#r1</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_LIA33102r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FRCQ3107ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LICA33107ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FLIA33103r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FRC33134ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FRCQ33135ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35102r_PI35103r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIQ35102r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35107ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35103r_PI33101r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LICA33106ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA33105Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFRQ33108r_1min_avg</t>
+    <t>CK67_L1R_CC_LIA33102r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FRCQ3107ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LICA33107ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FLIA33103r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FRC33134ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FRCQ33135ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35102r_PI35103r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIQ35102r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35107ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35103r_PI33101r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LICA33106ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA33105Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFRQ33108r_1hour_avg</t>
   </si>
   <si>
     <t>待建</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_LIA33101r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FRCQ33105ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LICA33135r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33148r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFRQ33140r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PRSA33131Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33137Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIA33135Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA33133Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FRCQ33137ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIA33104ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFRQ33138r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC33146ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PICA33161Aar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIA33162Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PICA33134ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIC33161Bar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIA33161Br_1min_avg</t>
+    <t>CK67_L1R_CC_LIA33101r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FRCQ33105ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LICA33135r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33148r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFRQ33140r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PRSA33131Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33137Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIA33135Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA33133Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FRCQ33137ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIA33104ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFRQ33138r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC33146ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PICA33161Aar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIA33162Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PICA33134ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIC33161Bar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIA33161Br_1hour_avg</t>
   </si>
   <si>
     <t xml:space="preserve">H2S g/m3 </t>
@@ -4011,127 +4011,127 @@
     <t>外供硫酸流量kg/h</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_PIC4301Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIC4301Br_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC4301A_pv_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC4301B_pv_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC4302ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4303r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI4327r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIC4312R_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4307ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_AI4304r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TICA4312r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC4316ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC4315ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4310r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4308r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4314r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4315r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI4309B_pv_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4316_pv_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4317r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4318_PV_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4319r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4329r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4352r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4354r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4325r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIC4343r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA4309Ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIC4308ABU_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIQ4321R_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIC4351ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4357r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIC4312ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIQ4330r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI4361r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_AIC4320ar_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4330r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIC4323R_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4343r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI4339r_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FI4326r_1min_avg</t>
+    <t>CK67_L1R_CC_PIC4301Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIC4301Br_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC4301A_pv_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC4301B_pv_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC4302ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4303r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI4327r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIC4312R_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4307ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_AI4304r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TICA4312r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC4316ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC4315ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4310r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4308r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4314r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4315r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI4309B_pv_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4316_pv_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4317r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4318_PV_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4319r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4329r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4352r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4354r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4325r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIC4343r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA4309Ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIC4308ABU_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIQ4321R_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIC4351ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4357r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIC4312ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIQ4330r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI4361r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_AIC4320ar_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4330r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIC4323R_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4343r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI4339r_1hour_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FI4326r_1hour_avg</t>
   </si>
   <si>
     <t>动态管控系统是否已采集？</t>
@@ -5674,14 +5674,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="107">
     <font>
@@ -5962,20 +5962,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5986,22 +5990,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6016,17 +6012,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -6037,22 +6025,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -6064,23 +6066,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6091,17 +6079,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Geneva"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6121,40 +6129,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Geneva"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6167,36 +6189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -6208,9 +6202,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6422,55 +6422,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6488,7 +6500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6500,37 +6518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6542,7 +6530,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6554,43 +6578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6608,19 +6596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6632,7 +6614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6644,25 +6626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6680,31 +6656,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7689,6 +7689,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7713,17 +7722,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7739,6 +7757,17 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7761,63 +7790,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7850,7 +7824,33 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="22"/>
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7884,1055 +7884,1055 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="9" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="63" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="76" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="52" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="46" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="57" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="69" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="80" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="80" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="80" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="78" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="57" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="11" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="11" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="34" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="86" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="57" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="60" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="67" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="67" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="77" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="25" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="77" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="77" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="54" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="54" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="54" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="67" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="57" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="57" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8941,131 +8941,131 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="80" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="76" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -9083,7 +9083,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -9134,15 +9134,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -9151,10 +9151,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -9164,10 +9164,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -9179,79 +9179,79 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="2" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="81" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="81" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -9269,130 +9269,130 @@
     <xf numFmtId="0" fontId="81" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="82" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="82" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="83" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="83" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9416,7 +9416,7 @@
     <xf numFmtId="0" fontId="84" fillId="5" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="84" fillId="5" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="84" fillId="5" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="5" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -9440,85 +9440,85 @@
     <xf numFmtId="0" fontId="84" fillId="5" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="85" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="85" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="77" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="80" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="57" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="54" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="54" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="54" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="54" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="54" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="54" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="54" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="54" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="416">
+  <cellXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9550,7 +9550,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9569,7 +9569,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="405" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9581,19 +9581,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="405" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9621,7 +9621,7 @@
     <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="155" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="156" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9633,7 +9633,7 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="155" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="156" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10642,9 +10642,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10673,21 +10670,21 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="好_宝钢集团广东韶关钢铁有限公司2013年09月度能耗指标表_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="2"/>
-    <cellStyle name="60% - 强调文字颜色 4 3" xfId="3"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="4"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="5"/>
-    <cellStyle name="_部分工序月度产量计划A_特棒厂能耗计划" xfId="6"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
-    <cellStyle name="输入" xfId="8" builtinId="20"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="9"/>
-    <cellStyle name="货币" xfId="10" builtinId="4"/>
-    <cellStyle name="常规 2 2 4" xfId="11"/>
-    <cellStyle name="60% - 着色 2" xfId="12"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="常规 2 2 4" xfId="4"/>
+    <cellStyle name="60% - 着色 2" xfId="5"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="6"/>
+    <cellStyle name="输入" xfId="7" builtinId="20"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="8"/>
+    <cellStyle name="60% - 强调文字颜色 4 3" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="10"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="11"/>
+    <cellStyle name="_部分工序月度产量计划A_特棒厂能耗计划" xfId="12"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="13" builtinId="38"/>
     <cellStyle name="好 3 2 2" xfId="14"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2015年3月能耗指标计划0227" xfId="15"/>
-    <cellStyle name="千位分隔[0]" xfId="16" builtinId="6"/>
-    <cellStyle name="_2014本月同比" xfId="17"/>
+    <cellStyle name="千位分隔[0]" xfId="15" builtinId="6"/>
+    <cellStyle name="_2014本月同比" xfId="16"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2015年3月能耗指标计划0227" xfId="17"/>
     <cellStyle name="_韶钢能源成本核算表_特棒厂能耗计划" xfId="18"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="19" builtinId="39"/>
     <cellStyle name="计算 2" xfId="20"/>
@@ -10702,37 +10699,37 @@
     <cellStyle name="超链接" xfId="29" builtinId="8"/>
     <cellStyle name="百分比" xfId="30" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="31" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="32"/>
-    <cellStyle name="注释" xfId="33" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="34"/>
+    <cellStyle name="注释" xfId="32" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="33"/>
+    <cellStyle name="常规 6" xfId="34"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="35" builtinId="36"/>
-    <cellStyle name="解释性文本 2 2" xfId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="37"/>
+    <cellStyle name="常规 5 2 4" xfId="36"/>
+    <cellStyle name="解释性文本 2 2" xfId="37"/>
     <cellStyle name="标题 4" xfId="38" builtinId="19"/>
     <cellStyle name="警告文本" xfId="39" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="40"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="41"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="40"/>
+    <cellStyle name="常规 5 2" xfId="41"/>
     <cellStyle name="标题" xfId="42" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="43" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="44"/>
     <cellStyle name="标题 1" xfId="45" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="46"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="46"/>
     <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="47"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="48"/>
+    <cellStyle name="常规 5 2 2" xfId="48"/>
     <cellStyle name="标题 2" xfId="49" builtinId="17"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="50"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="51" builtinId="32"/>
-    <cellStyle name="好_2017" xfId="52"/>
-    <cellStyle name="常规 5 2 3" xfId="53"/>
+    <cellStyle name="常规 5 2 3" xfId="52"/>
+    <cellStyle name="好_2017" xfId="53"/>
     <cellStyle name="标题 3" xfId="54" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="55" builtinId="44"/>
     <cellStyle name="输出" xfId="56" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="57"/>
-    <cellStyle name="常规 26" xfId="58"/>
-    <cellStyle name="_2014年2月能源成本报表_2015年3月能耗指标计划0227" xfId="59"/>
+    <cellStyle name="_2014年2月能源成本报表_2015年3月能耗指标计划0227" xfId="57"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="58"/>
+    <cellStyle name="常规 26" xfId="59"/>
     <cellStyle name="计算" xfId="60" builtinId="22"/>
-    <cellStyle name="计算 3 2" xfId="61"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="62"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="61"/>
+    <cellStyle name="计算 3 2" xfId="62"/>
     <cellStyle name="检查单元格" xfId="63" builtinId="23"/>
     <cellStyle name="差_宝钢集团广东韶关钢铁有限公司2013年09月度能耗指标表" xfId="64"/>
     <cellStyle name="常规 8 3" xfId="65"/>
@@ -10743,32 +10740,32 @@
     <cellStyle name="链接单元格" xfId="70" builtinId="24"/>
     <cellStyle name="好_能源报表2013_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="71"/>
     <cellStyle name="汇总" xfId="72" builtinId="25"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="73"/>
-    <cellStyle name="差 3 4" xfId="74"/>
-    <cellStyle name="_2014年2月能源成本报表_特棒厂能耗计划" xfId="75"/>
+    <cellStyle name="_2014年2月能源成本报表_特棒厂能耗计划" xfId="73"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="74"/>
+    <cellStyle name="差 3 4" xfId="75"/>
     <cellStyle name="好" xfId="76" builtinId="26"/>
     <cellStyle name="20% - 强调文字颜色 3 3" xfId="77"/>
     <cellStyle name="适中" xfId="78" builtinId="28"/>
-    <cellStyle name="警告文本 3 2 2" xfId="79"/>
-    <cellStyle name="汇总 3 2 3" xfId="80"/>
-    <cellStyle name="常规 8 2" xfId="81"/>
+    <cellStyle name="常规 8 2" xfId="79"/>
+    <cellStyle name="警告文本 3 2 2" xfId="80"/>
+    <cellStyle name="汇总 3 2 3" xfId="81"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="82" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="83"/>
     <cellStyle name="强调文字颜色 1" xfId="84" builtinId="29"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="85" builtinId="30"/>
-    <cellStyle name="计算 3 3 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="86"/>
     <cellStyle name="汇总 3 3" xfId="87"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="88"/>
+    <cellStyle name="计算 3 3 2" xfId="88"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="89" builtinId="31"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_各工序能耗计划" xfId="90"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="91" builtinId="34"/>
-    <cellStyle name="汇总 3 4" xfId="92"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="93"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="92"/>
+    <cellStyle name="汇总 3 4" xfId="93"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="94" builtinId="35"/>
     <cellStyle name="检查单元格 3 4" xfId="95"/>
     <cellStyle name="强调文字颜色 3" xfId="96" builtinId="37"/>
-    <cellStyle name="0,0_x005f_x000d__x000a_NA_x005f_x000d__x000a_" xfId="97"/>
-    <cellStyle name="_2014年2月能源成本报表_板材厂能耗计划" xfId="98"/>
+    <cellStyle name="_2014年2月能源成本报表_板材厂能耗计划" xfId="97"/>
+    <cellStyle name="0,0_x005f_x000d__x000a_NA_x005f_x000d__x000a_" xfId="98"/>
     <cellStyle name="强调文字颜色 4" xfId="99" builtinId="41"/>
     <cellStyle name="汇总 3 2 2" xfId="100"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="101" builtinId="42"/>
@@ -10776,212 +10773,212 @@
     <cellStyle name="计算 3" xfId="103"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="104" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="105" builtinId="45"/>
-    <cellStyle name="20% - 着色 2" xfId="106"/>
-    <cellStyle name="计算 4" xfId="107"/>
-    <cellStyle name="差_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="108"/>
+    <cellStyle name="差_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="106"/>
+    <cellStyle name="20% - 着色 2" xfId="107"/>
+    <cellStyle name="计算 4" xfId="108"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="109" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="110" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="111" builtinId="49"/>
-    <cellStyle name="20% - 着色 3" xfId="112"/>
-    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="114"/>
+    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="113"/>
+    <cellStyle name="20% - 着色 3" xfId="114"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="115" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="116" builtinId="52"/>
     <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_各工序能耗计划" xfId="117"/>
-    <cellStyle name="标题 4 3 3" xfId="118"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="119"/>
-    <cellStyle name="常规 2 2 6" xfId="120"/>
-    <cellStyle name="标题 1 2" xfId="121"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_各工序能耗计划" xfId="122"/>
-    <cellStyle name="60% - 着色 4" xfId="123"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="124"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_板材厂能耗计划" xfId="125"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="118"/>
+    <cellStyle name="标题 4 3 3" xfId="119"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_各工序能耗计划" xfId="120"/>
+    <cellStyle name="60% - 着色 4" xfId="121"/>
+    <cellStyle name="标题 1 2" xfId="122"/>
+    <cellStyle name="常规 2 2 6" xfId="123"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_板材厂能耗计划" xfId="124"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="125"/>
     <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_特棒厂能耗计划" xfId="126"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="127"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="128"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="127"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="128"/>
     <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="129"/>
-    <cellStyle name="常规 6 2 2 2" xfId="130"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_Book2" xfId="131"/>
-    <cellStyle name="常规 11 2 4" xfId="132"/>
-    <cellStyle name="标题 1 2 2" xfId="133"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="134"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_Book2" xfId="130"/>
+    <cellStyle name="常规 11 2 4" xfId="131"/>
+    <cellStyle name="常规 6 2 2 2" xfId="132"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="133"/>
+    <cellStyle name="标题 1 2 2" xfId="134"/>
     <cellStyle name="_2012.10-2013.09成本汇总(单耗)" xfId="135"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="136"/>
-    <cellStyle name="检查单元格 3 2 2" xfId="137"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="138"/>
-    <cellStyle name="_x000d__x000a_CCAPI200.DLL=C:\WINDOWS\SYSTEM\, Can't find CCAPI200.DLL_x000d__x000a_XLHELP.DLL=C:\MSOFFICE\EXCEL_x000d__x000a_MAI" xfId="139"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="136"/>
+    <cellStyle name="_x000d__x000a_CCAPI200.DLL=C:\WINDOWS\SYSTEM\, Can't find CCAPI200.DLL_x000d__x000a_XLHELP.DLL=C:\MSOFFICE\EXCEL_x000d__x000a_MAI" xfId="137"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="138"/>
+    <cellStyle name="检查单元格 3 2 2" xfId="139"/>
     <cellStyle name="_2005-2007股份及各分子公司主要指标情况" xfId="140"/>
     <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="141"/>
-    <cellStyle name="计算 3 4" xfId="142"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_炼轧厂能耗计划" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="143"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_炼轧厂能耗计划" xfId="144"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="145"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_特棒厂能耗计划" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="147"/>
+    <cellStyle name="计算 3 4" xfId="144"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_特棒厂能耗计划" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="146"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="147"/>
     <cellStyle name="_2014年2月能源成本报表" xfId="148"/>
     <cellStyle name="_2014年2月能源成本报表_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="150"/>
+    <cellStyle name="_2014年2月能源成本报表_Book2" xfId="150"/>
     <cellStyle name="_ET_STYLE_NoName_00__炼轧厂能耗计划" xfId="151"/>
-    <cellStyle name="_2014年2月能源成本报表_Book2" xfId="152"/>
-    <cellStyle name="差_宝钢及子公司余能回收" xfId="153"/>
-    <cellStyle name="_2014年2月能源成本报表_各工序能耗计划" xfId="154"/>
-    <cellStyle name="常规 10" xfId="155"/>
-    <cellStyle name="_2014年2月能源成本报表_炼轧厂能耗计划" xfId="156"/>
-    <cellStyle name="标题 4 2 2" xfId="157"/>
-    <cellStyle name="差_2017" xfId="158"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="159"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="152"/>
+    <cellStyle name="_2014年2月能源成本报表_各工序能耗计划" xfId="153"/>
+    <cellStyle name="差_宝钢及子公司余能回收" xfId="154"/>
+    <cellStyle name="_2014年2月能源成本报表_炼轧厂能耗计划" xfId="155"/>
+    <cellStyle name="常规 10" xfId="156"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="157"/>
+    <cellStyle name="标题 4 2 2" xfId="158"/>
+    <cellStyle name="差_2017" xfId="159"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表" xfId="160"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_2015年3月能耗指标计划0227" xfId="161"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="162"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_Book2" xfId="163"/>
     <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="164"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_板材厂能耗计划" xfId="165"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="166"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_各工序能耗计划" xfId="167"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_各工序能耗计划" xfId="166"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="167"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_炼轧厂能耗计划" xfId="168"/>
     <cellStyle name="标题 6 3" xfId="169"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2015年3月能耗指标计划0227" xfId="170"/>
-    <cellStyle name="千位分隔 2" xfId="171"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_特棒厂能耗计划" xfId="172"/>
-    <cellStyle name="标题 6 4" xfId="173"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="174"/>
-    <cellStyle name="差_能源报表2013_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="175"/>
+    <cellStyle name="千位分隔 2" xfId="170"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_特棒厂能耗计划" xfId="171"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2015年3月能耗指标计划0227" xfId="172"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="173"/>
+    <cellStyle name="标题 6 4" xfId="174"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="175"/>
     <cellStyle name="_部分工序月度产量计划A_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="176"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="177"/>
+    <cellStyle name="差_能源报表2013_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="177"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="178"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2 2" xfId="179"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="179"/>
     <cellStyle name="_韶钢能源成本核算表_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="180"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="182"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2 2" xfId="181"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="183"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="184"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_特棒厂能耗计划" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="186"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2015年3月能耗指标计划0227" xfId="187"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2015年3月能耗指标计划0227" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="187"/>
     <cellStyle name="_ET_STYLE_NoName_00__2015年6月能耗指标计划" xfId="188"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="189"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="190"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="189"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="190"/>
     <cellStyle name="_ET_STYLE_NoName_00__2017" xfId="191"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_特棒厂能耗计划" xfId="192"/>
-    <cellStyle name="_ET_STYLE_NoName_00__Book2" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="194"/>
-    <cellStyle name="_ET_STYLE_NoName_00__板材厂能耗计划" xfId="195"/>
+    <cellStyle name="_ET_STYLE_NoName_00__Book2" xfId="192"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_特棒厂能耗计划" xfId="193"/>
+    <cellStyle name="_ET_STYLE_NoName_00__板材厂能耗计划" xfId="194"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="195"/>
     <cellStyle name="_ET_STYLE_NoName_00__各工序能耗计划" xfId="196"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢2013年1月能源消耗指标e－p分析(内部)" xfId="197"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表" xfId="198"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="199"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="200"/>
-    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="201"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="202"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="201"/>
+    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="202"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_各工序能耗计划" xfId="203"/>
-    <cellStyle name="差_31号附表一：节能减排监测月报" xfId="204"/>
-    <cellStyle name="标题 1 3" xfId="205"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="206"/>
-    <cellStyle name="60% - 着色 5" xfId="207"/>
-    <cellStyle name="常规 7_2017" xfId="208"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2015年6月能耗指标计划" xfId="209"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="204"/>
+    <cellStyle name="60% - 着色 5" xfId="205"/>
+    <cellStyle name="标题 1 3" xfId="206"/>
+    <cellStyle name="差_31号附表一：节能减排监测月报" xfId="207"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2015年6月能耗指标计划" xfId="208"/>
+    <cellStyle name="常规 7_2017" xfId="209"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="210"/>
-    <cellStyle name="20% - 着色 4" xfId="211"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_Book2" xfId="211"/>
     <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="212"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_Book2" xfId="213"/>
-    <cellStyle name="常规 5 4" xfId="214"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_板材厂能耗计划" xfId="215"/>
-    <cellStyle name="_韶钢能源成本核算表_各工序能耗计划" xfId="216"/>
+    <cellStyle name="20% - 着色 4" xfId="213"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_板材厂能耗计划" xfId="214"/>
+    <cellStyle name="_韶钢能源成本核算表_各工序能耗计划" xfId="215"/>
+    <cellStyle name="常规 5 4" xfId="216"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_各工序能耗计划" xfId="217"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_炼轧厂能耗计划" xfId="218"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_特棒厂能耗计划" xfId="219"/>
     <cellStyle name="_ET_STYLE_NoName_00__特棒厂能耗计划" xfId="220"/>
     <cellStyle name="_x005f_x000d__x000a_CCAPI200.DLL=C:\WINDOWS\SYSTEM\, Can't find CCAPI200.DLL_x005f_x000d__x000a_XLHELP.DLL=C:\MSOFFICE\EXCEL_x005f_x000d__x000a_MAI" xfId="221"/>
-    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="222"/>
-    <cellStyle name="_x005f_x000d__x005f_x000a_CCAPI200.DLL=C:\WINDOWS\SYSTEM\, Can't find CCAPI200.DLL_x005f_x000d__x005f_x000a_XLHELP.DLL=C:\MSOFFICE\EXCEL_x005f_x000d__x005f_x000a_MAI" xfId="223"/>
-    <cellStyle name="常规 9" xfId="224"/>
-    <cellStyle name="_部分工序月度产量计划A" xfId="225"/>
+    <cellStyle name="_x005f_x000d__x005f_x000a_CCAPI200.DLL=C:\WINDOWS\SYSTEM\, Can't find CCAPI200.DLL_x005f_x000d__x005f_x000a_XLHELP.DLL=C:\MSOFFICE\EXCEL_x005f_x000d__x005f_x000a_MAI" xfId="222"/>
+    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="223"/>
+    <cellStyle name="_部分工序月度产量计划A" xfId="224"/>
+    <cellStyle name="常规 9" xfId="225"/>
     <cellStyle name="_部分工序月度产量计划A_2015年3月能耗指标计划0227" xfId="226"/>
-    <cellStyle name="标题 3 3 2 2" xfId="227"/>
-    <cellStyle name="_部分工序月度产量计划A_Book2" xfId="228"/>
+    <cellStyle name="_部分工序月度产量计划A_Book2" xfId="227"/>
+    <cellStyle name="标题 3 3 2 2" xfId="228"/>
     <cellStyle name="_部分工序月度产量计划A_板材厂能耗计划" xfId="229"/>
     <cellStyle name="_部分工序月度产量计划A_各工序能耗计划" xfId="230"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="231"/>
     <cellStyle name="_部分工序月度产量计划A_炼轧厂能耗计划" xfId="232"/>
     <cellStyle name="_韶钢能源成本核算表" xfId="233"/>
     <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="234"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2 2" xfId="235"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="236"/>
-    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="237"/>
+    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="235"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2 2" xfId="236"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="237"/>
     <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_各工序能耗计划" xfId="238"/>
     <cellStyle name="_韶钢能源成本核算表_2015年3月能耗指标计划0227" xfId="239"/>
     <cellStyle name="_韶钢能源成本核算表_2015年6月能耗指标计划" xfId="240"/>
-    <cellStyle name="常规 10 2 4" xfId="241"/>
-    <cellStyle name="输入 3" xfId="242"/>
-    <cellStyle name="_韶钢能源成本核算表_Book2" xfId="243"/>
+    <cellStyle name="输入 3" xfId="241"/>
+    <cellStyle name="_韶钢能源成本核算表_Book2" xfId="242"/>
+    <cellStyle name="常规 10 2 4" xfId="243"/>
     <cellStyle name="_韶钢能源成本核算表_板材厂能耗计划" xfId="244"/>
     <cellStyle name="_韶钢能源成本核算表_炼轧厂能耗计划" xfId="245"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="246"/>
     <cellStyle name="20% - 强调文字颜色 1 3" xfId="247"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="248"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2 2" xfId="249"/>
-    <cellStyle name="计算 2 2" xfId="250"/>
-    <cellStyle name="差_2015年6月能耗指标计划" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="252"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="253"/>
-    <cellStyle name="计算 2 3" xfId="254"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="251"/>
+    <cellStyle name="差_2015年6月能耗指标计划" xfId="252"/>
+    <cellStyle name="计算 2 2" xfId="253"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="254"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="255"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="256"/>
+    <cellStyle name="计算 2 3" xfId="256"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="257"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="258"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="259"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2 2" xfId="260"/>
-    <cellStyle name="常规 2 2 2" xfId="261"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="262"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="261"/>
+    <cellStyle name="常规 2 2 2" xfId="262"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="263"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="264"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="266"/>
-    <cellStyle name="好 3 3" xfId="267"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2 2" xfId="268"/>
-    <cellStyle name="常规 3 2 2" xfId="269"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2 2" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="267"/>
+    <cellStyle name="好 3 3" xfId="268"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="269"/>
     <cellStyle name="20% - 着色 5" xfId="270"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="271"/>
-    <cellStyle name="常规 3" xfId="272"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="273"/>
-    <cellStyle name="常规 3 2" xfId="274"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="275"/>
-    <cellStyle name="常规 3 3" xfId="276"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="277"/>
-    <cellStyle name="常规 4" xfId="278"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="279"/>
-    <cellStyle name="常规 4 2" xfId="280"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="281"/>
-    <cellStyle name="常规 4 3" xfId="282"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="283"/>
-    <cellStyle name="常规 8 2 2" xfId="284"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="285"/>
-    <cellStyle name="常规 8 2 2 2" xfId="286"/>
-    <cellStyle name="常规 5_2017" xfId="287"/>
-    <cellStyle name="40% - 着色 2" xfId="288"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="289"/>
-    <cellStyle name="40% - 着色 3" xfId="290"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="291"/>
-    <cellStyle name="常规 8 2 3" xfId="292"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="293"/>
+    <cellStyle name="常规 3 2 2" xfId="271"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="272"/>
+    <cellStyle name="常规 3" xfId="273"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="274"/>
+    <cellStyle name="常规 3 2" xfId="275"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="276"/>
+    <cellStyle name="常规 3 3" xfId="277"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="278"/>
+    <cellStyle name="常规 4" xfId="279"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="280"/>
+    <cellStyle name="常规 4 2" xfId="281"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="282"/>
+    <cellStyle name="常规 4 3" xfId="283"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="284"/>
+    <cellStyle name="常规 8 2 2" xfId="285"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="286"/>
+    <cellStyle name="40% - 着色 2" xfId="287"/>
+    <cellStyle name="常规 5_2017" xfId="288"/>
+    <cellStyle name="常规 8 2 2 2" xfId="289"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="290"/>
+    <cellStyle name="40% - 着色 3" xfId="291"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="292"/>
+    <cellStyle name="常规 8 2 3" xfId="293"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="294"/>
-    <cellStyle name="计算 3 5" xfId="295"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="296"/>
-    <cellStyle name="解释性文本 3 2 2" xfId="297"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="298"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="295"/>
+    <cellStyle name="计算 3 5" xfId="296"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="297"/>
+    <cellStyle name="解释性文本 3 2 2" xfId="298"/>
     <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="299"/>
-    <cellStyle name="60% - 强调文字颜色 6 3" xfId="300"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2 2" xfId="301"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2 2" xfId="300"/>
+    <cellStyle name="60% - 强调文字颜色 6 3" xfId="301"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="302"/>
-    <cellStyle name="常规 6 2 2" xfId="303"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="303"/>
     <cellStyle name="注释 2 2" xfId="304"/>
     <cellStyle name="60% - 强调文字颜色 2 3 2 2" xfId="305"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="306"/>
-    <cellStyle name="常规 3 2 3" xfId="307"/>
-    <cellStyle name="20% - 着色 6" xfId="308"/>
-    <cellStyle name="汇总 3 3 2" xfId="309"/>
+    <cellStyle name="常规 6 2 2" xfId="306"/>
+    <cellStyle name="20% - 着色 6" xfId="307"/>
+    <cellStyle name="常规 3 2 3" xfId="308"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="309"/>
     <cellStyle name="40% - 强调文字颜色 4 3 2 2" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="311"/>
+    <cellStyle name="汇总 3 3 2" xfId="311"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="312"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="313"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="314"/>
@@ -10990,14 +10987,14 @@
     <cellStyle name="40% - 强调文字颜色 1 3 2 2" xfId="317"/>
     <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="318"/>
     <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="319"/>
-    <cellStyle name="解释性文本 3 3" xfId="320"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="321"/>
-    <cellStyle name="解释性文本 3 4" xfId="322"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="323"/>
-    <cellStyle name="差_能源月度分析图表" xfId="324"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="325"/>
-    <cellStyle name="差_2016年能耗指标计划1" xfId="326"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2 2" xfId="327"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="320"/>
+    <cellStyle name="解释性文本 3 3" xfId="321"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="322"/>
+    <cellStyle name="解释性文本 3 4" xfId="323"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="324"/>
+    <cellStyle name="差_能源月度分析图表" xfId="325"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2 2" xfId="326"/>
+    <cellStyle name="差_2016年能耗指标计划1" xfId="327"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="328"/>
     <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="329"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="330"/>
@@ -11006,68 +11003,68 @@
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="333"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2 2" xfId="334"/>
     <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="335"/>
-    <cellStyle name="检查单元格 2" xfId="336"/>
-    <cellStyle name="计算 3 2 2" xfId="337"/>
-    <cellStyle name="汇总 2 3" xfId="338"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="339"/>
-    <cellStyle name="检查单元格 3" xfId="340"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="336"/>
+    <cellStyle name="汇总 2 3" xfId="337"/>
+    <cellStyle name="计算 3 2 2" xfId="338"/>
+    <cellStyle name="检查单元格 2" xfId="339"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="340"/>
     <cellStyle name="计算 3 2 3" xfId="341"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="342"/>
-    <cellStyle name="计算 3 3" xfId="343"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="344"/>
-    <cellStyle name="好_宝钢集团广东韶关钢铁有限公司2013年09月度能耗指标表" xfId="345"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="346"/>
+    <cellStyle name="检查单元格 3" xfId="342"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="343"/>
+    <cellStyle name="计算 3 3" xfId="344"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="345"/>
+    <cellStyle name="好_宝钢集团广东韶关钢铁有限公司2013年09月度能耗指标表" xfId="346"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="347"/>
     <cellStyle name="40% - 强调文字颜色 5 3" xfId="348"/>
-    <cellStyle name="60% - 强调文字颜色 5 3" xfId="349"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="350"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="351"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="352"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2 2" xfId="353"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="349"/>
+    <cellStyle name="60% - 强调文字颜色 5 3" xfId="350"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="351"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2 2" xfId="352"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="353"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="354"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="355"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="356"/>
     <cellStyle name="40% - 强调文字颜色 6 3" xfId="357"/>
     <cellStyle name="好 3 4" xfId="358"/>
-    <cellStyle name="解释性文本 3" xfId="359"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="360"/>
-    <cellStyle name="解释性文本 3 2" xfId="361"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2 2" xfId="362"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="359"/>
+    <cellStyle name="解释性文本 3" xfId="360"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2 2" xfId="361"/>
+    <cellStyle name="解释性文本 3 2" xfId="362"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="363"/>
-    <cellStyle name="差 2" xfId="364"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="365"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="364"/>
+    <cellStyle name="差 2" xfId="365"/>
     <cellStyle name="40% - 着色 1" xfId="366"/>
     <cellStyle name="40% - 着色 4" xfId="367"/>
     <cellStyle name="40% - 着色 5" xfId="368"/>
     <cellStyle name="40% - 着色 6" xfId="369"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="370"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="371"/>
-    <cellStyle name="常规 14 2 2" xfId="372"/>
-    <cellStyle name="60% - 强调文字颜色 1 3" xfId="373"/>
-    <cellStyle name="常规 14 2 2 2" xfId="374"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="375"/>
+    <cellStyle name="60% - 强调文字颜色 1 3" xfId="372"/>
+    <cellStyle name="常规 14 2 2" xfId="373"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="374"/>
+    <cellStyle name="常规 14 2 2 2" xfId="375"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2 2" xfId="376"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="377"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="378"/>
-    <cellStyle name="常规 5" xfId="379"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="380"/>
-    <cellStyle name="常规 6 2" xfId="381"/>
-    <cellStyle name="注释 2" xfId="382"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="383"/>
-    <cellStyle name="常规 6 3" xfId="384"/>
-    <cellStyle name="注释 3" xfId="385"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="386"/>
-    <cellStyle name="常规 6 4" xfId="387"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="388"/>
-    <cellStyle name="常规 8 2 4" xfId="389"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="390"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="379"/>
+    <cellStyle name="常规 5" xfId="380"/>
+    <cellStyle name="注释 2" xfId="381"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="382"/>
+    <cellStyle name="常规 6 2" xfId="383"/>
+    <cellStyle name="注释 3" xfId="384"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="385"/>
+    <cellStyle name="常规 6 3" xfId="386"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="387"/>
+    <cellStyle name="常规 6 4" xfId="388"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="389"/>
+    <cellStyle name="常规 8 2 4" xfId="390"/>
     <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="391"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="392"/>
     <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="393"/>
     <cellStyle name="60% - 强调文字颜色 3 3 2 2" xfId="394"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="395"/>
-    <cellStyle name="标题 4 3 2 2" xfId="396"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="397"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="395"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="396"/>
+    <cellStyle name="标题 4 3 2 2" xfId="397"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="398"/>
     <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="399"/>
     <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="400"/>
@@ -11084,36 +11081,36 @@
     <cellStyle name="60% - 强调文字颜色 5 3 2 2" xfId="411"/>
     <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="412"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="413"/>
-    <cellStyle name="好_宝钢及子公司余能回收" xfId="414"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="415"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="414"/>
+    <cellStyle name="好_宝钢及子公司余能回收" xfId="415"/>
     <cellStyle name="60% - 强调文字颜色 6 3 2 2" xfId="416"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="417"/>
-    <cellStyle name="常规 2 2 3" xfId="418"/>
-    <cellStyle name="60% - 着色 1" xfId="419"/>
-    <cellStyle name="常规 2 2 5" xfId="420"/>
-    <cellStyle name="60% - 着色 3" xfId="421"/>
+    <cellStyle name="60% - 着色 1" xfId="418"/>
+    <cellStyle name="常规 2 2 3" xfId="419"/>
+    <cellStyle name="60% - 着色 3" xfId="420"/>
+    <cellStyle name="常规 2 2 5" xfId="421"/>
     <cellStyle name="60% - 着色 6" xfId="422"/>
     <cellStyle name="百分比 2" xfId="423"/>
     <cellStyle name="百分比 2 2" xfId="424"/>
-    <cellStyle name="汇总 3" xfId="425"/>
-    <cellStyle name="标题 1 3 2" xfId="426"/>
-    <cellStyle name="汇总 3 2" xfId="427"/>
-    <cellStyle name="标题 1 3 2 2" xfId="428"/>
-    <cellStyle name="汇总 4" xfId="429"/>
-    <cellStyle name="标题 1 3 3" xfId="430"/>
+    <cellStyle name="标题 1 3 2" xfId="425"/>
+    <cellStyle name="汇总 3" xfId="426"/>
+    <cellStyle name="标题 1 3 2 2" xfId="427"/>
+    <cellStyle name="汇总 3 2" xfId="428"/>
+    <cellStyle name="标题 1 3 3" xfId="429"/>
+    <cellStyle name="汇总 4" xfId="430"/>
     <cellStyle name="标题 1 3 4" xfId="431"/>
     <cellStyle name="标题 2 2" xfId="432"/>
-    <cellStyle name="常规 8_2017" xfId="433"/>
-    <cellStyle name="标题 2 2 2" xfId="434"/>
+    <cellStyle name="标题 2 2 2" xfId="433"/>
+    <cellStyle name="常规 8_2017" xfId="434"/>
     <cellStyle name="标题 2 3" xfId="435"/>
-    <cellStyle name="常规 11" xfId="436"/>
-    <cellStyle name="标题 2 3 2" xfId="437"/>
-    <cellStyle name="常规 11 2" xfId="438"/>
-    <cellStyle name="标题 2 3 2 2" xfId="439"/>
-    <cellStyle name="常规 12" xfId="440"/>
-    <cellStyle name="标题 2 3 3" xfId="441"/>
-    <cellStyle name="常规 13" xfId="442"/>
-    <cellStyle name="标题 2 3 4" xfId="443"/>
+    <cellStyle name="标题 2 3 2" xfId="436"/>
+    <cellStyle name="常规 11" xfId="437"/>
+    <cellStyle name="标题 2 3 2 2" xfId="438"/>
+    <cellStyle name="常规 11 2" xfId="439"/>
+    <cellStyle name="标题 2 3 3" xfId="440"/>
+    <cellStyle name="常规 12" xfId="441"/>
+    <cellStyle name="标题 2 3 4" xfId="442"/>
+    <cellStyle name="常规 13" xfId="443"/>
     <cellStyle name="标题 3 2" xfId="444"/>
     <cellStyle name="标题 3 2 2" xfId="445"/>
     <cellStyle name="标题 3 3" xfId="446"/>
@@ -11122,8 +11119,8 @@
     <cellStyle name="标题 3 3 4" xfId="449"/>
     <cellStyle name="千位分隔 3" xfId="450"/>
     <cellStyle name="标题 4 2" xfId="451"/>
-    <cellStyle name="汇总 2 2" xfId="452"/>
-    <cellStyle name="标题 4 3" xfId="453"/>
+    <cellStyle name="标题 4 3" xfId="452"/>
+    <cellStyle name="汇总 2 2" xfId="453"/>
     <cellStyle name="标题 4 3 2" xfId="454"/>
     <cellStyle name="标题 4 3 4" xfId="455"/>
     <cellStyle name="标题 5" xfId="456"/>
@@ -11220,8 +11217,8 @@
     <cellStyle name="强调文字颜色 2 2" xfId="547"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="548"/>
     <cellStyle name="强调文字颜色 2 3" xfId="549"/>
-    <cellStyle name="输入 2" xfId="550"/>
-    <cellStyle name="强调文字颜色 2 3 2 2" xfId="551"/>
+    <cellStyle name="强调文字颜色 2 3 2 2" xfId="550"/>
+    <cellStyle name="输入 2" xfId="551"/>
     <cellStyle name="强调文字颜色 2 3 3" xfId="552"/>
     <cellStyle name="强调文字颜色 3 2" xfId="553"/>
     <cellStyle name="强调文字颜色 3 2 2" xfId="554"/>
@@ -11931,8 +11928,8 @@
   </sheetPr>
   <dimension ref="A1:BW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:AO32"/>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12041,17 +12038,17 @@
       <c r="R2" s="397"/>
       <c r="S2" s="397"/>
       <c r="T2" s="198"/>
-      <c r="U2" s="407"/>
-      <c r="V2" s="407" t="s">
+      <c r="U2" s="406"/>
+      <c r="V2" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="407"/>
-      <c r="X2" s="407"/>
-      <c r="Y2" s="407"/>
-      <c r="Z2" s="407"/>
-      <c r="AA2" s="407"/>
-      <c r="AB2" s="407"/>
-      <c r="AC2" s="407"/>
+      <c r="W2" s="406"/>
+      <c r="X2" s="406"/>
+      <c r="Y2" s="406"/>
+      <c r="Z2" s="406"/>
+      <c r="AA2" s="406"/>
+      <c r="AB2" s="406"/>
+      <c r="AC2" s="406"/>
       <c r="AD2" s="197"/>
       <c r="AE2" s="197"/>
       <c r="AF2" s="197"/>
@@ -12110,16 +12107,16 @@
       <c r="AE3" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="410"/>
-      <c r="AG3" s="410"/>
-      <c r="AH3" s="410"/>
-      <c r="AI3" s="410"/>
-      <c r="AJ3" s="410"/>
-      <c r="AK3" s="410"/>
-      <c r="AL3" s="410"/>
-      <c r="AM3" s="410"/>
-      <c r="AN3" s="410"/>
-      <c r="AO3" s="410"/>
+      <c r="AF3" s="409"/>
+      <c r="AG3" s="409"/>
+      <c r="AH3" s="409"/>
+      <c r="AI3" s="409"/>
+      <c r="AJ3" s="409"/>
+      <c r="AK3" s="409"/>
+      <c r="AL3" s="409"/>
+      <c r="AM3" s="409"/>
+      <c r="AN3" s="409"/>
+      <c r="AO3" s="409"/>
       <c r="AP3" s="180" t="s">
         <v>9</v>
       </c>
@@ -12144,31 +12141,31 @@
       <c r="BE3" s="371" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="413" t="s">
+      <c r="BF3" s="412" t="s">
         <v>13</v>
       </c>
-      <c r="BG3" s="413"/>
-      <c r="BH3" s="413"/>
-      <c r="BI3" s="413"/>
-      <c r="BJ3" s="414" t="s">
+      <c r="BG3" s="412"/>
+      <c r="BH3" s="412"/>
+      <c r="BI3" s="412"/>
+      <c r="BJ3" s="413" t="s">
         <v>14</v>
       </c>
-      <c r="BK3" s="414"/>
-      <c r="BL3" s="414"/>
-      <c r="BM3" s="414"/>
-      <c r="BN3" s="414" t="s">
+      <c r="BK3" s="413"/>
+      <c r="BL3" s="413"/>
+      <c r="BM3" s="413"/>
+      <c r="BN3" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="BO3" s="414"/>
-      <c r="BP3" s="414"/>
-      <c r="BQ3" s="414"/>
+      <c r="BO3" s="413"/>
+      <c r="BP3" s="413"/>
+      <c r="BQ3" s="413"/>
       <c r="BR3" s="391" t="s">
         <v>16</v>
       </c>
       <c r="BS3" s="391"/>
       <c r="BT3" s="391"/>
       <c r="BU3" s="391"/>
-      <c r="BV3" s="415" t="s">
+      <c r="BV3" s="414" t="s">
         <v>17</v>
       </c>
       <c r="BW3" s="197"/>
@@ -12363,26 +12360,26 @@
       <c r="T5" s="47"/>
       <c r="U5" s="47"/>
       <c r="V5" s="99"/>
-      <c r="W5" s="408"/>
-      <c r="X5" s="409">
+      <c r="W5" s="407"/>
+      <c r="X5" s="408">
         <v>1</v>
       </c>
-      <c r="Y5" s="409">
+      <c r="Y5" s="408">
         <v>2</v>
       </c>
-      <c r="Z5" s="409">
+      <c r="Z5" s="408">
         <v>3</v>
       </c>
-      <c r="AA5" s="409">
+      <c r="AA5" s="408">
         <v>4</v>
       </c>
-      <c r="AB5" s="409">
+      <c r="AB5" s="408">
         <v>5</v>
       </c>
-      <c r="AC5" s="409">
+      <c r="AC5" s="408">
         <v>6</v>
       </c>
-      <c r="AD5" s="409">
+      <c r="AD5" s="408">
         <v>7</v>
       </c>
       <c r="AE5" s="348"/>
@@ -12399,31 +12396,31 @@
       <c r="AP5" s="348"/>
       <c r="AQ5" s="348"/>
       <c r="AR5" s="348"/>
-      <c r="AS5" s="411" t="s">
+      <c r="AS5" s="410" t="s">
         <v>55</v>
       </c>
-      <c r="AT5" s="412" t="s">
+      <c r="AT5" s="411" t="s">
         <v>56</v>
       </c>
-      <c r="AU5" s="411" t="s">
+      <c r="AU5" s="410" t="s">
         <v>57</v>
       </c>
-      <c r="AV5" s="412" t="s">
+      <c r="AV5" s="411" t="s">
         <v>58</v>
       </c>
-      <c r="AW5" s="411" t="s">
+      <c r="AW5" s="410" t="s">
         <v>55</v>
       </c>
-      <c r="AX5" s="412" t="s">
+      <c r="AX5" s="411" t="s">
         <v>56</v>
       </c>
-      <c r="AY5" s="411" t="s">
+      <c r="AY5" s="410" t="s">
         <v>57</v>
       </c>
-      <c r="AZ5" s="412" t="s">
+      <c r="AZ5" s="411" t="s">
         <v>58</v>
       </c>
-      <c r="BA5" s="411"/>
+      <c r="BA5" s="410"/>
       <c r="BB5" s="348"/>
       <c r="BC5" s="61" t="s">
         <v>59</v>
@@ -13011,7 +13008,7 @@
         <f>IF(_gfln1_day_hour!I2="","",_gfln1_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L9" s="406"/>
+      <c r="L9" s="405"/>
       <c r="M9" s="48" t="str">
         <f>IF(_gfln2_day_hour!A4="","",_gfln2_day_hour!A4)</f>
         <v/>
@@ -13301,7 +13298,7 @@
         <f>IF(_gfln1_day_hour!I3="","",_gfln1_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L10" s="406"/>
+      <c r="L10" s="405"/>
       <c r="M10" s="48" t="str">
         <f>IF(_gfln2_day_hour!A5="","",_gfln2_day_hour!A5)</f>
         <v/>
@@ -39897,7 +39894,7 @@
   <sheetPr/>
   <dimension ref="B1:AK32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/excel/finished/焦化/CK67-化产报表设计1109.xlsx
+++ b/src/main/resources/excel/finished/焦化/CK67-化产报表设计1109.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="760" firstSheet="13" activeTab="17"/>
+    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="760" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="1.鼓风冷凝(日)" sheetId="1" r:id="rId1"/>
@@ -958,382 +958,382 @@
     <t>L2存储点名</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_3PI_1101_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1415A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1415B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1415C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_3PI1101_3PI1415A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_3PI1101_3PI1415B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_3PI1101_3PI1415C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1402_R1_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PV_1101_1hour_avg</t>
+    <t>CK67_L1R_CC_3PI_1101_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1415A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1415B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1415C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_3PI1101_3PI1415A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_3PI1101_3PI1415B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_3PI1101_3PI1415C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1402_R1_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PV_1101_1h_avg</t>
   </si>
   <si>
     <t>取主电机电流最大的那一行</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_B_1401A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1405A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1406A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1407A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1408A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1409A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1412A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1411A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1405A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_HZ_1401A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_ST_1401A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1414A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1415A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1416A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_`_TT_1417A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1418A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1419A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1420A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1410A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1403A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LT_1402A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1402A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1403A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1404A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_XT_1401A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1401A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1402A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1403A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1404A_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIQ31103r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIQ31104r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI31107r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI31109Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI31109Cr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI31109Dr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI31102Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI31102Cr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI31102Dr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_3PI1101_3PI1102_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_AISA31201r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIC31202ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIC31202br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIQ31201r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FT31801Aar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FT31801Bar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC31801ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC31801br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFI31101Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFI31101Cr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFI31101Dr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFI31102Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFI31102Cr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFI31102Dr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LT31803Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LT31803Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI31155r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIC31101ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33501r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_B_1401B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1405B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1406B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1407B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1408B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1409B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1412B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1411B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1405B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_HZ_1401B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_ST_1401B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1414B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1415B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1416B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1417B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1418B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1419B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1420B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1410B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1403B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LT_1402B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1402B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1403B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1404B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_XT_1401B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1401B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1402B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1403B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1404B_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_B_1401C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1405C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1406C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1407C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1408C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1409C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1412C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1411C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1405C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_HZ_1401C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_ST_1401C_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1414_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1415_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1416_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1417_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1418_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1419_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1420_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1410_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1403_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LT_1402_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1402_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1403_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TT_1404_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_XT_1401_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1401_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1402_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1403_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_VT_1404_1hour_avg</t>
+    <t>CK67_L1R_CC_B_1401A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1405A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1406A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1407A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1408A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1409A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1412A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1411A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1405A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_HZ_1401A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_ST_1401A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1414A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1415A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1416A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_`_TT_1417A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1418A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1419A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1420A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1410A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1403A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LT_1402A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1402A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1403A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1404A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_XT_1401A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1401A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1402A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1403A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1404A_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIQ31103r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIQ31104r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI31107r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI31109Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI31109Cr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI31109Dr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI31102Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI31102Cr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI31102Dr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_3PI1101_3PI1102_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_AISA31201r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIC31202ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIC31202br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIQ31201r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FT31801Aar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FT31801Bar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC31801ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC31801br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFI31101Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFI31101Cr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFI31101Dr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFI31102Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFI31102Cr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFI31102Dr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LT31803Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LT31803Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI31155r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIC31101ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33501r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_B_1401B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1405B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1406B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1407B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1408B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1409B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1412B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1411B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1405B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_HZ_1401B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_ST_1401B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1414B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1415B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1416B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1417B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1418B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1419B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1420B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1410B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1403B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LT_1402B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1402B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1403B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1404B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_XT_1401B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1401B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1402B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1403B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1404B_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_B_1401C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1405C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1406C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1407C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1408C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1409C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1412C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1411C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1405C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_HZ_1401C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_ST_1401C_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1414_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1415_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1416_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1417_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1418_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1419_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1420_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1410_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1403_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LT_1402_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1402_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1403_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TT_1404_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_XT_1401_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1401_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1402_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1403_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_VT_1404_1h_avg</t>
   </si>
   <si>
     <t>夜班平均</t>
@@ -1832,124 +1832,124 @@
     <t>自抽装置压力kPa</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_PI30604r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0601AVr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0601BVr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA30603Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA30603Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFR30608r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI30605r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI30604r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI30603r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFR30607r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FR30610r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0602AVr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0602BVr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA30603Cr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA30602r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI30602r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIA30802r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFR30603r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0603AVr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P0603BVr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TOTAL_FIQ30602_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA30601r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI30601r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIA30801r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFR30601r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI30803r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TR30822Aar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TR30822Bar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30802Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30801Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PaLiBr1_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30802Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30801Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PaLiBr2_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30802Cr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30801Cr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PaLiBr3_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30802Dr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFI30801Dr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PaLiBr4_1hour_avg</t>
+    <t>CK67_L1R_CC_PI30604r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0601AVr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0601BVr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA30603Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA30603Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFR30608r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI30605r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI30604r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI30603r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFR30607r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FR30610r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0602AVr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0602BVr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA30603Cr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA30602r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI30602r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIA30802r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFR30603r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0603AVr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P0603BVr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TOTAL_FIQ30602_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA30601r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI30601r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIA30801r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFR30601r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI30803r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TR30822Aar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TR30822Bar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30802Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30801Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PaLiBr1_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30802Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30801Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PaLiBr2_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30802Cr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30801Cr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PaLiBr3_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30802Dr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFI30801Dr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PaLiBr4_1h_avg</t>
   </si>
   <si>
     <r>
@@ -2289,58 +2289,58 @@
     </r>
   </si>
   <si>
-    <t>CK67_L1R_CC_TI33303Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33303Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33302Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33302Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33302Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33302Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LRCA33301Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LRCA33301Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFRCQ33351r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33351r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TRSA33353r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33304r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33304r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIQ33302r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33301r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC31802ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FI33304r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC33106ar_1hour_avg</t>
+    <t>CK67_L1R_CC_TI33303Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33303Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33302Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33302Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33302Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33302Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LRCA33301Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LRCA33301Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFRCQ33351r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33351r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TRSA33353r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33304r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33304r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIQ33302r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33301r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC31802ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FI33304r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC33106ar_1h_avg</t>
   </si>
   <si>
     <t>化验项目</t>
@@ -2523,52 +2523,52 @@
     <t>电机电流A</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_PT_1402_R1_PI33203Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PT_1402_R1_PI33203Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33203Ar_PI33204r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33203Br_PI33204r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33201Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33201Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33202r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33203Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33203Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P3201AIr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P3201BIr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA33203r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA33202r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA33201r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIQ33203r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33205r_1hour_avg</t>
+    <t>CK67_L1R_CC_PT_1402_R1_PI33203Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PT_1402_R1_PI33203Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33203Ar_PI33204r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33203Br_PI33204r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33201Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33201Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33202r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33203Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33203Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P3201AIr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P3201BIr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA33203r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA33202r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA33201r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIQ33203r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33205r_1h_avg</t>
   </si>
   <si>
     <t>硫
@@ -2853,94 +2853,94 @@
     <t>过热蒸汽温度 ℃</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_BZFRCQ35251r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35252r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35251r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFRCQ35103r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35253r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35202ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFIQ35205r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35219ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FR35203ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35208r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35213r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35214r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35203r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35204r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC35201ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35205r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35210r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LI35201ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FR35211r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TV35201Ir_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5201AIr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5201bIr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5201AVFr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5201BVFr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35203r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35206r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35204r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35207r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35206r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35206br_1hour_avg</t>
+    <t>CK67_L1R_CC_BZFRCQ35251r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35252r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35251r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFRCQ35103r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35253r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35202ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFIQ35205r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35219ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FR35203ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35208r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35213r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35214r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35203r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35204r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC35201ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35205r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35210r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LI35201ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FR35211r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TV35201Ir_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5201AIr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5201bIr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5201AVFr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5201BVFr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35203r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35206r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35204r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35207r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35206r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35206br_1h_avg</t>
   </si>
   <si>
     <t>粗苯</t>
@@ -3110,91 +3110,91 @@
     <t>站后压缩空气流量m3/H</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_P5101AIr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5101BIr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35101r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA35104ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33204r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35101r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI33204r_PI35101r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35102r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5102AIr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5102BIr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5102AVr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_P5102BVr_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_QFIQ35210r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35104r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35105ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35102r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35101r_PI35102r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI35103r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA35102r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA35103r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI30821r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI30821r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PR30822Aar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PR30822Bar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FI30823Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FI30823Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI30811r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI30812r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIQ30812r_1hour_avg</t>
+    <t>CK67_L1R_CC_P5101AIr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5101BIr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35101r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA35104ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33204r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35101r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI33204r_PI35101r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35102r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5102AIr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5102BIr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5102AVr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_P5102BVr_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_QFIQ35210r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35104r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35105ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35102r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35101r_PI35102r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI35103r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA35102r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA35103r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI30821r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI30821r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PR30822Aar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PR30822Bar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FI30823Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FI30823Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI30811r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI30812r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIQ30812r_1h_avg</t>
   </si>
   <si>
     <r>
@@ -3668,100 +3668,100 @@
     <t>1#r1</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_LIA33102r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FRCQ3107ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LICA33107ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FLIA33103r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FRC33134ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FRCQ33135ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35102r_PI35103r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIQ35102r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA35107ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI35103r_PI33101r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LICA33106ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA33105Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFRQ33108r_1hour_avg</t>
+    <t>CK67_L1R_CC_LIA33102r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FRCQ3107ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LICA33107ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FLIA33103r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FRC33134ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FRCQ33135ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35102r_PI35103r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIQ35102r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA35107ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI35103r_PI33101r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LICA33106ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA33105Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFRQ33108r_1h_avg</t>
   </si>
   <si>
     <t>待建</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_LIA33101r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FRCQ33105ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LICA33135r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33148r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFRQ33140r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PRSA33131Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI33137Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIA33135Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIA33133Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FRCQ33137ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIA33104ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFRQ33138r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC33146ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PICA33161Aar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIA33162Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PICA33134ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIC33161Bar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIA33161Br_1hour_avg</t>
+    <t>CK67_L1R_CC_LIA33101r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FRCQ33105ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LICA33135r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33148r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFRQ33140r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PRSA33131Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI33137Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIA33135Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIA33133Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FRCQ33137ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIA33104ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFRQ33138r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC33146ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PICA33161Aar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIA33162Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PICA33134ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIC33161Bar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIA33161Br_1h_avg</t>
   </si>
   <si>
     <t xml:space="preserve">H2S g/m3 </t>
@@ -4011,127 +4011,127 @@
     <t>外供硫酸流量kg/h</t>
   </si>
   <si>
-    <t>CK67_L1R_CC_PIC4301Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIC4301Br_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC4301A_pv_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC4301B_pv_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC4302ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4303r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI4327r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIC4312R_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4307ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_AI4304r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TICA4312r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC4316ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIC4315ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4310r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4308r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4314r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4315r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI4309B_pv_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4316_pv_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4317r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4318_PV_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4319r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4329r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4352r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4354r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4325r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIC4343r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LISA4309Ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIC4308ABU_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIQ4321R_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PIC4351ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4357r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_LIC4312ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FIQ4330r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI4361r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_AIC4320ar_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TIC4330r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_BZFIC4323R_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_TI4343r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_PI4339r_1hour_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CC_FI4326r_1hour_avg</t>
+    <t>CK67_L1R_CC_PIC4301Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIC4301Br_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC4301A_pv_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC4301B_pv_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC4302ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4303r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI4327r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIC4312R_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4307ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_AI4304r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TICA4312r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC4316ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIC4315ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4310r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4308r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4314r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4315r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI4309B_pv_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4316_pv_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4317r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4318_PV_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4319r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4329r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4352r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4354r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4325r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIC4343r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LISA4309Ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIC4308ABU_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIQ4321R_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PIC4351ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4357r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_LIC4312ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FIQ4330r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI4361r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_AIC4320ar_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TIC4330r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_BZFIC4323R_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_TI4343r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_PI4339r_1h_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CC_FI4326r_1h_avg</t>
   </si>
   <si>
     <t>动态管控系统是否已采集？</t>
@@ -5674,14 +5674,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="179" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
   </numFmts>
   <fonts count="107">
     <font>
@@ -5962,24 +5962,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5989,8 +5977,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6005,10 +6001,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6018,10 +6013,27 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6034,15 +6046,69 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Geneva"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6053,46 +6119,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Geneva"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6100,13 +6137,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6121,49 +6167,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6189,28 +6202,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6422,31 +6422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6464,7 +6440,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6476,7 +6506,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6488,43 +6560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6536,61 +6590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6614,12 +6620,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6627,6 +6627,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6692,6 +6698,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6699,18 +6711,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7689,48 +7689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7742,6 +7700,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7763,10 +7741,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="62"/>
       </bottom>
       <diagonal/>
@@ -7796,11 +7781,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="30"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7823,23 +7838,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7884,1055 +7884,1055 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="52" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="51" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="66" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="63" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="88" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="28" borderId="84" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="28" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="9" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="67" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="82" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="88" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="77" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="82" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="82" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="82" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="54" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="79" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="79" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="79" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="82" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="82" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="84" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="8" borderId="77" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="76" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="52" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="46" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="80" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="80" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="80" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="51" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8941,131 +8941,131 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="56" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="85" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="80" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -9083,7 +9083,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -9134,15 +9134,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -9151,10 +9151,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -9164,10 +9164,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -9179,13 +9179,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -9194,7 +9194,7 @@
     <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9203,55 +9203,55 @@
     <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="62" fillId="2" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="61" fillId="2" borderId="82" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="81" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="81" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -9269,145 +9269,145 @@
     <xf numFmtId="0" fontId="81" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="82" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="82" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="83" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="83" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="5" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -9416,7 +9416,7 @@
     <xf numFmtId="0" fontId="84" fillId="5" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="84" fillId="5" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="84" fillId="5" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="5" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -9440,81 +9440,81 @@
     <xf numFmtId="0" fontId="84" fillId="5" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="21" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="85" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="27" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="85" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="80" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="79" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="52" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="86" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="35" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="35" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="87" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9550,7 +9550,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9569,40 +9569,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="405" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="408" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="405" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="408" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="405" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9611,29 +9611,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="156" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="155" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="156" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="155" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9648,7 +9648,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -10670,21 +10670,21 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="好_宝钢集团广东韶关钢铁有限公司2013年09月度能耗指标表_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="2"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="常规 2 2 4" xfId="4"/>
-    <cellStyle name="60% - 着色 2" xfId="5"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="6"/>
-    <cellStyle name="输入" xfId="7" builtinId="20"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="8"/>
-    <cellStyle name="60% - 强调文字颜色 4 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="10"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="11"/>
-    <cellStyle name="_部分工序月度产量计划A_特棒厂能耗计划" xfId="12"/>
+    <cellStyle name="60% - 强调文字颜色 4 3" xfId="3"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="4"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="5"/>
+    <cellStyle name="_部分工序月度产量计划A_特棒厂能耗计划" xfId="6"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
+    <cellStyle name="输入" xfId="8" builtinId="20"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="9"/>
+    <cellStyle name="货币" xfId="10" builtinId="4"/>
+    <cellStyle name="常规 2 2 4" xfId="11"/>
+    <cellStyle name="60% - 着色 2" xfId="12"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="13" builtinId="38"/>
     <cellStyle name="好 3 2 2" xfId="14"/>
-    <cellStyle name="千位分隔[0]" xfId="15" builtinId="6"/>
-    <cellStyle name="_2014本月同比" xfId="16"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2015年3月能耗指标计划0227" xfId="17"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2015年3月能耗指标计划0227" xfId="15"/>
+    <cellStyle name="千位分隔[0]" xfId="16" builtinId="6"/>
+    <cellStyle name="_2014本月同比" xfId="17"/>
     <cellStyle name="_韶钢能源成本核算表_特棒厂能耗计划" xfId="18"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="19" builtinId="39"/>
     <cellStyle name="计算 2" xfId="20"/>
@@ -10699,37 +10699,37 @@
     <cellStyle name="超链接" xfId="29" builtinId="8"/>
     <cellStyle name="百分比" xfId="30" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="31" builtinId="9"/>
-    <cellStyle name="注释" xfId="32" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="33"/>
-    <cellStyle name="常规 6" xfId="34"/>
+    <cellStyle name="常规 6" xfId="32"/>
+    <cellStyle name="注释" xfId="33" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="34"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="35" builtinId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="36"/>
-    <cellStyle name="解释性文本 2 2" xfId="37"/>
+    <cellStyle name="解释性文本 2 2" xfId="36"/>
+    <cellStyle name="常规 5 2 4" xfId="37"/>
     <cellStyle name="标题 4" xfId="38" builtinId="19"/>
     <cellStyle name="警告文本" xfId="39" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="40"/>
-    <cellStyle name="常规 5 2" xfId="41"/>
+    <cellStyle name="常规 5 2" xfId="40"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="41"/>
     <cellStyle name="标题" xfId="42" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="43" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="44"/>
     <cellStyle name="标题 1" xfId="45" builtinId="16"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="46"/>
+    <cellStyle name="常规 5 2 2" xfId="46"/>
     <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="47"/>
-    <cellStyle name="常规 5 2 2" xfId="48"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="48"/>
     <cellStyle name="标题 2" xfId="49" builtinId="17"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="50"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="51" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="52"/>
-    <cellStyle name="好_2017" xfId="53"/>
+    <cellStyle name="好_2017" xfId="52"/>
+    <cellStyle name="常规 5 2 3" xfId="53"/>
     <cellStyle name="标题 3" xfId="54" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="55" builtinId="44"/>
     <cellStyle name="输出" xfId="56" builtinId="21"/>
-    <cellStyle name="_2014年2月能源成本报表_2015年3月能耗指标计划0227" xfId="57"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="58"/>
-    <cellStyle name="常规 26" xfId="59"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="57"/>
+    <cellStyle name="常规 26" xfId="58"/>
+    <cellStyle name="_2014年2月能源成本报表_2015年3月能耗指标计划0227" xfId="59"/>
     <cellStyle name="计算" xfId="60" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="61"/>
-    <cellStyle name="计算 3 2" xfId="62"/>
+    <cellStyle name="计算 3 2" xfId="61"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="62"/>
     <cellStyle name="检查单元格" xfId="63" builtinId="23"/>
     <cellStyle name="差_宝钢集团广东韶关钢铁有限公司2013年09月度能耗指标表" xfId="64"/>
     <cellStyle name="常规 8 3" xfId="65"/>
@@ -10740,32 +10740,32 @@
     <cellStyle name="链接单元格" xfId="70" builtinId="24"/>
     <cellStyle name="好_能源报表2013_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="71"/>
     <cellStyle name="汇总" xfId="72" builtinId="25"/>
-    <cellStyle name="_2014年2月能源成本报表_特棒厂能耗计划" xfId="73"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="74"/>
-    <cellStyle name="差 3 4" xfId="75"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="73"/>
+    <cellStyle name="差 3 4" xfId="74"/>
+    <cellStyle name="_2014年2月能源成本报表_特棒厂能耗计划" xfId="75"/>
     <cellStyle name="好" xfId="76" builtinId="26"/>
     <cellStyle name="20% - 强调文字颜色 3 3" xfId="77"/>
     <cellStyle name="适中" xfId="78" builtinId="28"/>
-    <cellStyle name="常规 8 2" xfId="79"/>
-    <cellStyle name="警告文本 3 2 2" xfId="80"/>
-    <cellStyle name="汇总 3 2 3" xfId="81"/>
+    <cellStyle name="警告文本 3 2 2" xfId="79"/>
+    <cellStyle name="汇总 3 2 3" xfId="80"/>
+    <cellStyle name="常规 8 2" xfId="81"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="82" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="83"/>
     <cellStyle name="强调文字颜色 1" xfId="84" builtinId="29"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="85" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="86"/>
+    <cellStyle name="计算 3 3 2" xfId="86"/>
     <cellStyle name="汇总 3 3" xfId="87"/>
-    <cellStyle name="计算 3 3 2" xfId="88"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="88"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="89" builtinId="31"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_各工序能耗计划" xfId="90"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="91" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="92"/>
-    <cellStyle name="汇总 3 4" xfId="93"/>
+    <cellStyle name="汇总 3 4" xfId="92"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="93"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="94" builtinId="35"/>
     <cellStyle name="检查单元格 3 4" xfId="95"/>
     <cellStyle name="强调文字颜色 3" xfId="96" builtinId="37"/>
-    <cellStyle name="_2014年2月能源成本报表_板材厂能耗计划" xfId="97"/>
-    <cellStyle name="0,0_x005f_x000d__x000a_NA_x005f_x000d__x000a_" xfId="98"/>
+    <cellStyle name="0,0_x005f_x000d__x000a_NA_x005f_x000d__x000a_" xfId="97"/>
+    <cellStyle name="_2014年2月能源成本报表_板材厂能耗计划" xfId="98"/>
     <cellStyle name="强调文字颜色 4" xfId="99" builtinId="41"/>
     <cellStyle name="汇总 3 2 2" xfId="100"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="101" builtinId="42"/>
@@ -10773,212 +10773,212 @@
     <cellStyle name="计算 3" xfId="103"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="104" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="105" builtinId="45"/>
-    <cellStyle name="差_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="106"/>
-    <cellStyle name="20% - 着色 2" xfId="107"/>
-    <cellStyle name="计算 4" xfId="108"/>
+    <cellStyle name="20% - 着色 2" xfId="106"/>
+    <cellStyle name="计算 4" xfId="107"/>
+    <cellStyle name="差_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="108"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="109" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="110" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="111" builtinId="49"/>
-    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="113"/>
-    <cellStyle name="20% - 着色 3" xfId="114"/>
+    <cellStyle name="20% - 着色 3" xfId="112"/>
+    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="114"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="115" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="116" builtinId="52"/>
     <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_各工序能耗计划" xfId="117"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="118"/>
-    <cellStyle name="标题 4 3 3" xfId="119"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_各工序能耗计划" xfId="120"/>
-    <cellStyle name="60% - 着色 4" xfId="121"/>
-    <cellStyle name="标题 1 2" xfId="122"/>
-    <cellStyle name="常规 2 2 6" xfId="123"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_板材厂能耗计划" xfId="124"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="125"/>
+    <cellStyle name="标题 4 3 3" xfId="118"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="119"/>
+    <cellStyle name="常规 2 2 6" xfId="120"/>
+    <cellStyle name="标题 1 2" xfId="121"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_各工序能耗计划" xfId="122"/>
+    <cellStyle name="60% - 着色 4" xfId="123"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="124"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_板材厂能耗计划" xfId="125"/>
     <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_特棒厂能耗计划" xfId="126"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="127"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="128"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="127"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="128"/>
     <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="129"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_Book2" xfId="130"/>
-    <cellStyle name="常规 11 2 4" xfId="131"/>
-    <cellStyle name="常规 6 2 2 2" xfId="132"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="133"/>
-    <cellStyle name="标题 1 2 2" xfId="134"/>
+    <cellStyle name="常规 6 2 2 2" xfId="130"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_Book2" xfId="131"/>
+    <cellStyle name="常规 11 2 4" xfId="132"/>
+    <cellStyle name="标题 1 2 2" xfId="133"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="134"/>
     <cellStyle name="_2012.10-2013.09成本汇总(单耗)" xfId="135"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="136"/>
-    <cellStyle name="_x000d__x000a_CCAPI200.DLL=C:\WINDOWS\SYSTEM\, Can't find CCAPI200.DLL_x000d__x000a_XLHELP.DLL=C:\MSOFFICE\EXCEL_x000d__x000a_MAI" xfId="137"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="138"/>
-    <cellStyle name="检查单元格 3 2 2" xfId="139"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="136"/>
+    <cellStyle name="检查单元格 3 2 2" xfId="137"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="138"/>
+    <cellStyle name="_x000d__x000a_CCAPI200.DLL=C:\WINDOWS\SYSTEM\, Can't find CCAPI200.DLL_x000d__x000a_XLHELP.DLL=C:\MSOFFICE\EXCEL_x000d__x000a_MAI" xfId="139"/>
     <cellStyle name="_2005-2007股份及各分子公司主要指标情况" xfId="140"/>
     <cellStyle name="_2012.10-2013.09成本汇总(单耗)_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="141"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_炼轧厂能耗计划" xfId="142"/>
+    <cellStyle name="计算 3 4" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="143"/>
-    <cellStyle name="计算 3 4" xfId="144"/>
-    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_特棒厂能耗计划" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="146"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="147"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_炼轧厂能耗计划" xfId="144"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="145"/>
+    <cellStyle name="_2012.10-2013.09成本汇总(单耗)_特棒厂能耗计划" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="147"/>
     <cellStyle name="_2014年2月能源成本报表" xfId="148"/>
     <cellStyle name="_2014年2月能源成本报表_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="149"/>
-    <cellStyle name="_2014年2月能源成本报表_Book2" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="150"/>
     <cellStyle name="_ET_STYLE_NoName_00__炼轧厂能耗计划" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="152"/>
-    <cellStyle name="_2014年2月能源成本报表_各工序能耗计划" xfId="153"/>
-    <cellStyle name="差_宝钢及子公司余能回收" xfId="154"/>
-    <cellStyle name="_2014年2月能源成本报表_炼轧厂能耗计划" xfId="155"/>
-    <cellStyle name="常规 10" xfId="156"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="157"/>
-    <cellStyle name="标题 4 2 2" xfId="158"/>
-    <cellStyle name="差_2017" xfId="159"/>
+    <cellStyle name="_2014年2月能源成本报表_Book2" xfId="152"/>
+    <cellStyle name="差_宝钢及子公司余能回收" xfId="153"/>
+    <cellStyle name="_2014年2月能源成本报表_各工序能耗计划" xfId="154"/>
+    <cellStyle name="常规 10" xfId="155"/>
+    <cellStyle name="_2014年2月能源成本报表_炼轧厂能耗计划" xfId="156"/>
+    <cellStyle name="标题 4 2 2" xfId="157"/>
+    <cellStyle name="差_2017" xfId="158"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="159"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表" xfId="160"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_2015年3月能耗指标计划0227" xfId="161"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="162"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_Book2" xfId="163"/>
     <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="164"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_板材厂能耗计划" xfId="165"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_各工序能耗计划" xfId="166"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="167"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="166"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_各工序能耗计划" xfId="167"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_炼轧厂能耗计划" xfId="168"/>
     <cellStyle name="标题 6 3" xfId="169"/>
-    <cellStyle name="千位分隔 2" xfId="170"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_特棒厂能耗计划" xfId="171"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2015年3月能耗指标计划0227" xfId="172"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="173"/>
-    <cellStyle name="标题 6 4" xfId="174"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="175"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2015年3月能耗指标计划0227" xfId="170"/>
+    <cellStyle name="千位分隔 2" xfId="171"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年2月能源成本报表_特棒厂能耗计划" xfId="172"/>
+    <cellStyle name="标题 6 4" xfId="173"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="174"/>
+    <cellStyle name="差_能源报表2013_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="175"/>
     <cellStyle name="_部分工序月度产量计划A_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="176"/>
-    <cellStyle name="差_能源报表2013_2014年主要能源指标上报(第二稿12月14日12时更新)" xfId="177"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="177"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="178"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="179"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2 2" xfId="179"/>
     <cellStyle name="_韶钢能源成本核算表_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2 2" xfId="181"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="183"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="182"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="183"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="184"/>
     <cellStyle name="_ET_STYLE_NoName_00__2014年主要能源指标上报(第二稿12月14日12时更新)_特棒厂能耗计划" xfId="185"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2015年3月能耗指标计划0227" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="187"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="186"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2015年3月能耗指标计划0227" xfId="187"/>
     <cellStyle name="_ET_STYLE_NoName_00__2015年6月能耗指标计划" xfId="188"/>
-    <cellStyle name="_ET_STYLE_NoName_00__2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="189"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="190"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="189"/>
+    <cellStyle name="_ET_STYLE_NoName_00__2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="190"/>
     <cellStyle name="_ET_STYLE_NoName_00__2017" xfId="191"/>
-    <cellStyle name="_ET_STYLE_NoName_00__Book2" xfId="192"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_特棒厂能耗计划" xfId="193"/>
-    <cellStyle name="_ET_STYLE_NoName_00__板材厂能耗计划" xfId="194"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="195"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_特棒厂能耗计划" xfId="192"/>
+    <cellStyle name="_ET_STYLE_NoName_00__Book2" xfId="193"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="194"/>
+    <cellStyle name="_ET_STYLE_NoName_00__板材厂能耗计划" xfId="195"/>
     <cellStyle name="_ET_STYLE_NoName_00__各工序能耗计划" xfId="196"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢2013年1月能源消耗指标e－p分析(内部)" xfId="197"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表" xfId="198"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="199"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_Book2" xfId="200"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="201"/>
-    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="202"/>
+    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="201"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="202"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_各工序能耗计划" xfId="203"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="204"/>
-    <cellStyle name="60% - 着色 5" xfId="205"/>
-    <cellStyle name="标题 1 3" xfId="206"/>
-    <cellStyle name="差_31号附表一：节能减排监测月报" xfId="207"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2015年6月能耗指标计划" xfId="208"/>
-    <cellStyle name="常规 7_2017" xfId="209"/>
+    <cellStyle name="差_31号附表一：节能减排监测月报" xfId="204"/>
+    <cellStyle name="标题 1 3" xfId="205"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="206"/>
+    <cellStyle name="60% - 着色 5" xfId="207"/>
+    <cellStyle name="常规 7_2017" xfId="208"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2015年6月能耗指标计划" xfId="209"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_2015年能耗指标计划（计合同能源项目）四稿0131能源" xfId="210"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_Book2" xfId="211"/>
+    <cellStyle name="20% - 着色 4" xfId="211"/>
     <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="212"/>
-    <cellStyle name="20% - 着色 4" xfId="213"/>
-    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_板材厂能耗计划" xfId="214"/>
-    <cellStyle name="_韶钢能源成本核算表_各工序能耗计划" xfId="215"/>
-    <cellStyle name="常规 5 4" xfId="216"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_Book2" xfId="213"/>
+    <cellStyle name="常规 5 4" xfId="214"/>
+    <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_板材厂能耗计划" xfId="215"/>
+    <cellStyle name="_韶钢能源成本核算表_各工序能耗计划" xfId="216"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_各工序能耗计划" xfId="217"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_炼轧厂能耗计划" xfId="218"/>
     <cellStyle name="_ET_STYLE_NoName_00__韶钢能源成本核算表_特棒厂能耗计划" xfId="219"/>
     <cellStyle name="_ET_STYLE_NoName_00__特棒厂能耗计划" xfId="220"/>
     <cellStyle name="_x005f_x000d__x000a_CCAPI200.DLL=C:\WINDOWS\SYSTEM\, Can't find CCAPI200.DLL_x005f_x000d__x000a_XLHELP.DLL=C:\MSOFFICE\EXCEL_x005f_x000d__x000a_MAI" xfId="221"/>
-    <cellStyle name="_x005f_x000d__x005f_x000a_CCAPI200.DLL=C:\WINDOWS\SYSTEM\, Can't find CCAPI200.DLL_x005f_x000d__x005f_x000a_XLHELP.DLL=C:\MSOFFICE\EXCEL_x005f_x000d__x005f_x000a_MAI" xfId="222"/>
-    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="223"/>
-    <cellStyle name="_部分工序月度产量计划A" xfId="224"/>
-    <cellStyle name="常规 9" xfId="225"/>
+    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_炼轧厂能耗计划" xfId="222"/>
+    <cellStyle name="_x005f_x000d__x005f_x000a_CCAPI200.DLL=C:\WINDOWS\SYSTEM\, Can't find CCAPI200.DLL_x005f_x000d__x005f_x000a_XLHELP.DLL=C:\MSOFFICE\EXCEL_x005f_x000d__x005f_x000a_MAI" xfId="223"/>
+    <cellStyle name="常规 9" xfId="224"/>
+    <cellStyle name="_部分工序月度产量计划A" xfId="225"/>
     <cellStyle name="_部分工序月度产量计划A_2015年3月能耗指标计划0227" xfId="226"/>
-    <cellStyle name="_部分工序月度产量计划A_Book2" xfId="227"/>
-    <cellStyle name="标题 3 3 2 2" xfId="228"/>
+    <cellStyle name="标题 3 3 2 2" xfId="227"/>
+    <cellStyle name="_部分工序月度产量计划A_Book2" xfId="228"/>
     <cellStyle name="_部分工序月度产量计划A_板材厂能耗计划" xfId="229"/>
     <cellStyle name="_部分工序月度产量计划A_各工序能耗计划" xfId="230"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="231"/>
     <cellStyle name="_部分工序月度产量计划A_炼轧厂能耗计划" xfId="232"/>
     <cellStyle name="_韶钢能源成本核算表" xfId="233"/>
     <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_2015年3月能耗指标计划0227" xfId="234"/>
-    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="235"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2 2" xfId="236"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="237"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2 2" xfId="235"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="236"/>
+    <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_板材厂能耗计划" xfId="237"/>
     <cellStyle name="_韶钢能源成本核算表_2014年主要能源指标上报(第二稿12月14日12时更新)_各工序能耗计划" xfId="238"/>
     <cellStyle name="_韶钢能源成本核算表_2015年3月能耗指标计划0227" xfId="239"/>
     <cellStyle name="_韶钢能源成本核算表_2015年6月能耗指标计划" xfId="240"/>
-    <cellStyle name="输入 3" xfId="241"/>
-    <cellStyle name="_韶钢能源成本核算表_Book2" xfId="242"/>
-    <cellStyle name="常规 10 2 4" xfId="243"/>
+    <cellStyle name="常规 10 2 4" xfId="241"/>
+    <cellStyle name="输入 3" xfId="242"/>
+    <cellStyle name="_韶钢能源成本核算表_Book2" xfId="243"/>
     <cellStyle name="_韶钢能源成本核算表_板材厂能耗计划" xfId="244"/>
     <cellStyle name="_韶钢能源成本核算表_炼轧厂能耗计划" xfId="245"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="246"/>
     <cellStyle name="20% - 强调文字颜色 1 3" xfId="247"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="248"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2 2" xfId="249"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="251"/>
-    <cellStyle name="差_2015年6月能耗指标计划" xfId="252"/>
-    <cellStyle name="计算 2 2" xfId="253"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="254"/>
+    <cellStyle name="计算 2 2" xfId="250"/>
+    <cellStyle name="差_2015年6月能耗指标计划" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="252"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="253"/>
+    <cellStyle name="计算 2 3" xfId="254"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="255"/>
-    <cellStyle name="计算 2 3" xfId="256"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="256"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="257"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="258"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="259"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2 2" xfId="260"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="261"/>
-    <cellStyle name="常规 2 2 2" xfId="262"/>
+    <cellStyle name="常规 2 2 2" xfId="261"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="262"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="263"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="264"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="265"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2 2" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="267"/>
-    <cellStyle name="好 3 3" xfId="268"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="266"/>
+    <cellStyle name="好 3 3" xfId="267"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2 2" xfId="268"/>
+    <cellStyle name="常规 3 2 2" xfId="269"/>
     <cellStyle name="20% - 着色 5" xfId="270"/>
-    <cellStyle name="常规 3 2 2" xfId="271"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="272"/>
-    <cellStyle name="常规 3" xfId="273"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="274"/>
-    <cellStyle name="常规 3 2" xfId="275"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="276"/>
-    <cellStyle name="常规 3 3" xfId="277"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="278"/>
-    <cellStyle name="常规 4" xfId="279"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="280"/>
-    <cellStyle name="常规 4 2" xfId="281"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="282"/>
-    <cellStyle name="常规 4 3" xfId="283"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="284"/>
-    <cellStyle name="常规 8 2 2" xfId="285"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="286"/>
-    <cellStyle name="40% - 着色 2" xfId="287"/>
-    <cellStyle name="常规 5_2017" xfId="288"/>
-    <cellStyle name="常规 8 2 2 2" xfId="289"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="290"/>
-    <cellStyle name="40% - 着色 3" xfId="291"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="292"/>
-    <cellStyle name="常规 8 2 3" xfId="293"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="271"/>
+    <cellStyle name="常规 3" xfId="272"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="273"/>
+    <cellStyle name="常规 3 2" xfId="274"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="275"/>
+    <cellStyle name="常规 3 3" xfId="276"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="277"/>
+    <cellStyle name="常规 4" xfId="278"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="279"/>
+    <cellStyle name="常规 4 2" xfId="280"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="281"/>
+    <cellStyle name="常规 4 3" xfId="282"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="283"/>
+    <cellStyle name="常规 8 2 2" xfId="284"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="285"/>
+    <cellStyle name="常规 8 2 2 2" xfId="286"/>
+    <cellStyle name="常规 5_2017" xfId="287"/>
+    <cellStyle name="40% - 着色 2" xfId="288"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="289"/>
+    <cellStyle name="40% - 着色 3" xfId="290"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="291"/>
+    <cellStyle name="常规 8 2 3" xfId="292"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="293"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="294"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="295"/>
-    <cellStyle name="计算 3 5" xfId="296"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="297"/>
-    <cellStyle name="解释性文本 3 2 2" xfId="298"/>
+    <cellStyle name="计算 3 5" xfId="295"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="296"/>
+    <cellStyle name="解释性文本 3 2 2" xfId="297"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="298"/>
     <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="299"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2 2" xfId="300"/>
-    <cellStyle name="60% - 强调文字颜色 6 3" xfId="301"/>
+    <cellStyle name="60% - 强调文字颜色 6 3" xfId="300"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2 2" xfId="301"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="302"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="303"/>
+    <cellStyle name="常规 6 2 2" xfId="303"/>
     <cellStyle name="注释 2 2" xfId="304"/>
     <cellStyle name="60% - 强调文字颜色 2 3 2 2" xfId="305"/>
-    <cellStyle name="常规 6 2 2" xfId="306"/>
-    <cellStyle name="20% - 着色 6" xfId="307"/>
-    <cellStyle name="常规 3 2 3" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="309"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="306"/>
+    <cellStyle name="常规 3 2 3" xfId="307"/>
+    <cellStyle name="20% - 着色 6" xfId="308"/>
+    <cellStyle name="汇总 3 3 2" xfId="309"/>
     <cellStyle name="40% - 强调文字颜色 4 3 2 2" xfId="310"/>
-    <cellStyle name="汇总 3 3 2" xfId="311"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="311"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="312"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="313"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="314"/>
@@ -10987,14 +10987,14 @@
     <cellStyle name="40% - 强调文字颜色 1 3 2 2" xfId="317"/>
     <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="318"/>
     <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="319"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="320"/>
-    <cellStyle name="解释性文本 3 3" xfId="321"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="322"/>
-    <cellStyle name="解释性文本 3 4" xfId="323"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="324"/>
-    <cellStyle name="差_能源月度分析图表" xfId="325"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2 2" xfId="326"/>
-    <cellStyle name="差_2016年能耗指标计划1" xfId="327"/>
+    <cellStyle name="解释性文本 3 3" xfId="320"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="321"/>
+    <cellStyle name="解释性文本 3 4" xfId="322"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="323"/>
+    <cellStyle name="差_能源月度分析图表" xfId="324"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="325"/>
+    <cellStyle name="差_2016年能耗指标计划1" xfId="326"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2 2" xfId="327"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="328"/>
     <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="329"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="330"/>
@@ -11003,68 +11003,68 @@
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="333"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2 2" xfId="334"/>
     <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="335"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="336"/>
-    <cellStyle name="汇总 2 3" xfId="337"/>
-    <cellStyle name="计算 3 2 2" xfId="338"/>
-    <cellStyle name="检查单元格 2" xfId="339"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="340"/>
+    <cellStyle name="检查单元格 2" xfId="336"/>
+    <cellStyle name="计算 3 2 2" xfId="337"/>
+    <cellStyle name="汇总 2 3" xfId="338"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="339"/>
+    <cellStyle name="检查单元格 3" xfId="340"/>
     <cellStyle name="计算 3 2 3" xfId="341"/>
-    <cellStyle name="检查单元格 3" xfId="342"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="343"/>
-    <cellStyle name="计算 3 3" xfId="344"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="345"/>
-    <cellStyle name="好_宝钢集团广东韶关钢铁有限公司2013年09月度能耗指标表" xfId="346"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="342"/>
+    <cellStyle name="计算 3 3" xfId="343"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="344"/>
+    <cellStyle name="好_宝钢集团广东韶关钢铁有限公司2013年09月度能耗指标表" xfId="345"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="346"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="347"/>
     <cellStyle name="40% - 强调文字颜色 5 3" xfId="348"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="349"/>
-    <cellStyle name="60% - 强调文字颜色 5 3" xfId="350"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="351"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2 2" xfId="352"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="353"/>
+    <cellStyle name="60% - 强调文字颜色 5 3" xfId="349"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="350"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="351"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="352"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2 2" xfId="353"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="354"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="355"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="356"/>
     <cellStyle name="40% - 强调文字颜色 6 3" xfId="357"/>
     <cellStyle name="好 3 4" xfId="358"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="359"/>
-    <cellStyle name="解释性文本 3" xfId="360"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2 2" xfId="361"/>
-    <cellStyle name="解释性文本 3 2" xfId="362"/>
+    <cellStyle name="解释性文本 3" xfId="359"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="360"/>
+    <cellStyle name="解释性文本 3 2" xfId="361"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2 2" xfId="362"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="363"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="364"/>
-    <cellStyle name="差 2" xfId="365"/>
+    <cellStyle name="差 2" xfId="364"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="365"/>
     <cellStyle name="40% - 着色 1" xfId="366"/>
     <cellStyle name="40% - 着色 4" xfId="367"/>
     <cellStyle name="40% - 着色 5" xfId="368"/>
     <cellStyle name="40% - 着色 6" xfId="369"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="370"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="371"/>
-    <cellStyle name="60% - 强调文字颜色 1 3" xfId="372"/>
-    <cellStyle name="常规 14 2 2" xfId="373"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="374"/>
-    <cellStyle name="常规 14 2 2 2" xfId="375"/>
+    <cellStyle name="常规 14 2 2" xfId="372"/>
+    <cellStyle name="60% - 强调文字颜色 1 3" xfId="373"/>
+    <cellStyle name="常规 14 2 2 2" xfId="374"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="375"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2 2" xfId="376"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="377"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="378"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="379"/>
-    <cellStyle name="常规 5" xfId="380"/>
-    <cellStyle name="注释 2" xfId="381"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="382"/>
-    <cellStyle name="常规 6 2" xfId="383"/>
-    <cellStyle name="注释 3" xfId="384"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="385"/>
-    <cellStyle name="常规 6 3" xfId="386"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="387"/>
-    <cellStyle name="常规 6 4" xfId="388"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="389"/>
-    <cellStyle name="常规 8 2 4" xfId="390"/>
+    <cellStyle name="常规 5" xfId="379"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="380"/>
+    <cellStyle name="常规 6 2" xfId="381"/>
+    <cellStyle name="注释 2" xfId="382"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="383"/>
+    <cellStyle name="常规 6 3" xfId="384"/>
+    <cellStyle name="注释 3" xfId="385"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="386"/>
+    <cellStyle name="常规 6 4" xfId="387"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="388"/>
+    <cellStyle name="常规 8 2 4" xfId="389"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="390"/>
     <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="391"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="392"/>
     <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="393"/>
     <cellStyle name="60% - 强调文字颜色 3 3 2 2" xfId="394"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="395"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="396"/>
-    <cellStyle name="标题 4 3 2 2" xfId="397"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="395"/>
+    <cellStyle name="标题 4 3 2 2" xfId="396"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="397"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="398"/>
     <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="399"/>
     <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="400"/>
@@ -11081,36 +11081,36 @@
     <cellStyle name="60% - 强调文字颜色 5 3 2 2" xfId="411"/>
     <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="412"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="413"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="414"/>
-    <cellStyle name="好_宝钢及子公司余能回收" xfId="415"/>
+    <cellStyle name="好_宝钢及子公司余能回收" xfId="414"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="415"/>
     <cellStyle name="60% - 强调文字颜色 6 3 2 2" xfId="416"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="417"/>
-    <cellStyle name="60% - 着色 1" xfId="418"/>
-    <cellStyle name="常规 2 2 3" xfId="419"/>
-    <cellStyle name="60% - 着色 3" xfId="420"/>
-    <cellStyle name="常规 2 2 5" xfId="421"/>
+    <cellStyle name="常规 2 2 3" xfId="418"/>
+    <cellStyle name="60% - 着色 1" xfId="419"/>
+    <cellStyle name="常规 2 2 5" xfId="420"/>
+    <cellStyle name="60% - 着色 3" xfId="421"/>
     <cellStyle name="60% - 着色 6" xfId="422"/>
     <cellStyle name="百分比 2" xfId="423"/>
     <cellStyle name="百分比 2 2" xfId="424"/>
-    <cellStyle name="标题 1 3 2" xfId="425"/>
-    <cellStyle name="汇总 3" xfId="426"/>
-    <cellStyle name="标题 1 3 2 2" xfId="427"/>
-    <cellStyle name="汇总 3 2" xfId="428"/>
-    <cellStyle name="标题 1 3 3" xfId="429"/>
-    <cellStyle name="汇总 4" xfId="430"/>
+    <cellStyle name="汇总 3" xfId="425"/>
+    <cellStyle name="标题 1 3 2" xfId="426"/>
+    <cellStyle name="汇总 3 2" xfId="427"/>
+    <cellStyle name="标题 1 3 2 2" xfId="428"/>
+    <cellStyle name="汇总 4" xfId="429"/>
+    <cellStyle name="标题 1 3 3" xfId="430"/>
     <cellStyle name="标题 1 3 4" xfId="431"/>
     <cellStyle name="标题 2 2" xfId="432"/>
-    <cellStyle name="标题 2 2 2" xfId="433"/>
-    <cellStyle name="常规 8_2017" xfId="434"/>
+    <cellStyle name="常规 8_2017" xfId="433"/>
+    <cellStyle name="标题 2 2 2" xfId="434"/>
     <cellStyle name="标题 2 3" xfId="435"/>
-    <cellStyle name="标题 2 3 2" xfId="436"/>
-    <cellStyle name="常规 11" xfId="437"/>
-    <cellStyle name="标题 2 3 2 2" xfId="438"/>
-    <cellStyle name="常规 11 2" xfId="439"/>
-    <cellStyle name="标题 2 3 3" xfId="440"/>
-    <cellStyle name="常规 12" xfId="441"/>
-    <cellStyle name="标题 2 3 4" xfId="442"/>
-    <cellStyle name="常规 13" xfId="443"/>
+    <cellStyle name="常规 11" xfId="436"/>
+    <cellStyle name="标题 2 3 2" xfId="437"/>
+    <cellStyle name="常规 11 2" xfId="438"/>
+    <cellStyle name="标题 2 3 2 2" xfId="439"/>
+    <cellStyle name="常规 12" xfId="440"/>
+    <cellStyle name="标题 2 3 3" xfId="441"/>
+    <cellStyle name="常规 13" xfId="442"/>
+    <cellStyle name="标题 2 3 4" xfId="443"/>
     <cellStyle name="标题 3 2" xfId="444"/>
     <cellStyle name="标题 3 2 2" xfId="445"/>
     <cellStyle name="标题 3 3" xfId="446"/>
@@ -11119,8 +11119,8 @@
     <cellStyle name="标题 3 3 4" xfId="449"/>
     <cellStyle name="千位分隔 3" xfId="450"/>
     <cellStyle name="标题 4 2" xfId="451"/>
-    <cellStyle name="标题 4 3" xfId="452"/>
-    <cellStyle name="汇总 2 2" xfId="453"/>
+    <cellStyle name="汇总 2 2" xfId="452"/>
+    <cellStyle name="标题 4 3" xfId="453"/>
     <cellStyle name="标题 4 3 2" xfId="454"/>
     <cellStyle name="标题 4 3 4" xfId="455"/>
     <cellStyle name="标题 5" xfId="456"/>
@@ -11217,8 +11217,8 @@
     <cellStyle name="强调文字颜色 2 2" xfId="547"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="548"/>
     <cellStyle name="强调文字颜色 2 3" xfId="549"/>
-    <cellStyle name="强调文字颜色 2 3 2 2" xfId="550"/>
-    <cellStyle name="输入 2" xfId="551"/>
+    <cellStyle name="输入 2" xfId="550"/>
+    <cellStyle name="强调文字颜色 2 3 2 2" xfId="551"/>
     <cellStyle name="强调文字颜色 2 3 3" xfId="552"/>
     <cellStyle name="强调文字颜色 3 2" xfId="553"/>
     <cellStyle name="强调文字颜色 3 2 2" xfId="554"/>
@@ -11928,8 +11928,8 @@
   </sheetPr>
   <dimension ref="A1:BW38"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="AD4" workbookViewId="0">
+      <selection activeCell="AP6" sqref="AP6:BV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12476,7 +12476,7 @@
       <c r="BV5" s="163"/>
       <c r="BW5" s="197"/>
     </row>
-    <row r="6" ht="72" spans="1:74">
+    <row r="6" ht="60" spans="1:74">
       <c r="A6" s="251"/>
       <c r="B6" s="202" t="s">
         <v>69</v>
@@ -12698,7 +12698,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" ht="85.5" spans="2:74">
+    <row r="7" ht="71.25" spans="2:74">
       <c r="B7" s="145">
         <v>0</v>
       </c>
@@ -20481,8 +20481,8 @@
   </sheetPr>
   <dimension ref="B1:AK37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -24356,8 +24356,8 @@
   </sheetPr>
   <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -24467,8 +24467,8 @@
   </sheetPr>
   <dimension ref="B1:AL37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
@@ -28462,8 +28462,8 @@
   </sheetPr>
   <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28576,8 +28576,8 @@
   </sheetPr>
   <dimension ref="A1:BD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AP7" sqref="AP7:AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -34703,8 +34703,8 @@
   <sheetPr/>
   <dimension ref="A1:AW1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1:AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -34838,7 +34838,7 @@
   <dimension ref="A1:AR43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7:AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
@@ -35212,7 +35212,7 @@
       <c r="AP6" s="143"/>
       <c r="AQ6" s="163"/>
     </row>
-    <row r="7" ht="85.5" spans="2:44">
+    <row r="7" ht="71.25" spans="2:44">
       <c r="B7" s="144" t="s">
         <v>69</v>
       </c>
@@ -39752,8 +39752,8 @@
   <sheetPr/>
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -39894,7 +39894,7 @@
   <sheetPr/>
   <dimension ref="B1:AK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -40761,7 +40761,7 @@
   </sheetPr>
   <dimension ref="A2:AT13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
@@ -41161,8 +41161,8 @@
   <sheetPr/>
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -41409,13 +41409,13 @@
   <sheetPr/>
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" ht="48" spans="1:29">
+    <row r="1" ht="36" spans="1:29">
       <c r="A1" s="157" t="s">
         <v>80</v>
       </c>
@@ -41696,7 +41696,7 @@
   <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6:AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -46576,8 +46576,8 @@
   </sheetPr>
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -46721,7 +46721,7 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="C6" sqref="C6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49295,13 +49295,13 @@
   </sheetPr>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="48" spans="1:18">
+    <row r="1" ht="36" spans="1:18">
       <c r="A1" s="247" t="s">
         <v>302</v>
       </c>
@@ -49371,7 +49371,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -51628,7 +51628,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="A1" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
